--- a/Capstone/src/test/resources/webshop.xlsx
+++ b/Capstone/src/test/resources/webshop.xlsx
@@ -21,16 +21,16 @@
     <t>http://demowebshop.tricentis.com/</t>
   </si>
   <si>
-    <t>ROHITH</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>rohi@92422</t>
   </si>
   <si>
-    <t>rohithshettyrohi313@gmail.com</t>
+    <t xml:space="preserve">shiva </t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shiva.a@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,33 +407,33 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C1" r:id="rId3"/>
-    <hyperlink ref="D2" r:id="rId4"/>
-    <hyperlink ref="E2" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="B1" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId6"/>
